--- a/HW Source Files/SENSORSHLD1-EVK-101 HW Design Files/Schematic_BOM/ROHM_SENSORSHLD1-EVK-101_BOM_REV01_2016-03-16.xlsx
+++ b/HW Source Files/SENSORSHLD1-EVK-101 HW Design Files/Schematic_BOM/ROHM_SENSORSHLD1-EVK-101_BOM_REV01_2016-03-16.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="SENSORKIT-MULTISENSORSHIELD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="252"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="173">
   <si>
     <t>Item</t>
   </si>
@@ -435,9 +435,6 @@
     <t>U14,U16</t>
   </si>
   <si>
-    <t>KX123</t>
-  </si>
-  <si>
     <t>R47</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
     <t>1191-1041-1-ND</t>
   </si>
   <si>
-    <t>KX124</t>
-  </si>
-  <si>
     <t>Arduino Standard Headers</t>
   </si>
   <si>
@@ -525,9 +519,6 @@
     <t>CONN RCPT .100" 3POS TIN WW - Recptacle on top</t>
   </si>
   <si>
-    <t>KX122-????</t>
-  </si>
-  <si>
     <t>C1,C2,C3,C5,C6,C9,C10,C11,C17,C21,C23,C24,C25,C26,C27,C28,C29,C30,C31,37</t>
   </si>
   <si>
@@ -541,6 +532,12 @@
   </si>
   <si>
     <t>LAPIS/ROHM</t>
+  </si>
+  <si>
+    <t>KX122-1048</t>
+  </si>
+  <si>
+    <t>KXG03-1034</t>
   </si>
 </sst>
 </file>
@@ -704,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,12 +879,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1152,7 +1143,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1162,11 +1153,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1205,6 +1191,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1918,7 +1905,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,8 +1913,8 @@
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="10.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="18" customWidth="1"/>
     <col min="6" max="6" width="50.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -1939,64 +1926,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>171</v>
+      <c r="A1" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="4">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -2020,10 +2007,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="4">
@@ -2054,10 +2041,10 @@
         <v>23</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="4">
@@ -2088,10 +2075,10 @@
         <v>28</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="4">
@@ -2122,10 +2109,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="4">
@@ -2156,10 +2143,10 @@
         <v>37</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="10"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="4">
@@ -2190,10 +2177,10 @@
         <v>42</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="4">
@@ -2214,20 +2201,20 @@
       <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>144</v>
+      <c r="J11" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="4">
@@ -2248,27 +2235,27 @@
       <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="4">
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2282,27 +2269,27 @@
       <c r="G13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>145</v>
+      <c r="J13" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2316,22 +2303,22 @@
       <c r="G14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>145</v>
+      <c r="J14" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="4">
@@ -2352,20 +2339,20 @@
       <c r="G15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="10"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="4">
@@ -2386,20 +2373,20 @@
       <c r="G16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="1" t="s">
         <v>128</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="10"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="4">
@@ -2420,20 +2407,20 @@
       <c r="G17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>146</v>
+      <c r="J17" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="10"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="4">
@@ -2443,10 +2430,10 @@
         <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>79</v>
@@ -2454,20 +2441,20 @@
       <c r="G18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>140</v>
+      <c r="J18" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="10"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="4">
@@ -2488,20 +2475,20 @@
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="4">
@@ -2511,7 +2498,7 @@
         <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>85</v>
@@ -2520,22 +2507,22 @@
         <v>86</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>142</v>
+      <c r="J20" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="4">
@@ -2556,20 +2543,20 @@
       <c r="G21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="4">
@@ -2590,20 +2577,20 @@
       <c r="G22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>149</v>
+      <c r="J22" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="10"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="4">
@@ -2622,22 +2609,22 @@
         <v>97</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="1" t="s">
         <v>95</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="4">
@@ -2656,22 +2643,22 @@
         <v>100</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="4">
@@ -2702,10 +2689,10 @@
         <v>106</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="4">
@@ -2714,8 +2701,8 @@
       <c r="C26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>138</v>
+      <c r="D26" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>107</v>
@@ -2724,22 +2711,22 @@
         <v>108</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="4">
@@ -2748,8 +2735,8 @@
       <c r="C27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>152</v>
+      <c r="D27" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>107</v>
@@ -2758,22 +2745,22 @@
         <v>108</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I27" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>168</v>
+      <c r="J27" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="4">
@@ -2794,20 +2781,20 @@
       <c r="G28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="2" t="s">
         <v>114</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>24</v>
       </c>
       <c r="B29" s="4">
@@ -2838,10 +2825,10 @@
         <v>122</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="4">
@@ -2862,20 +2849,20 @@
       <c r="G30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="1" t="s">
         <v>132</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="4">
@@ -2885,13 +2872,13 @@
         <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2902,12 +2889,12 @@
       <c r="K31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="11" t="s">
-        <v>157</v>
+      <c r="L31" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="4">
@@ -2917,13 +2904,13 @@
         <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2934,12 +2921,12 @@
       <c r="K32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="4">
@@ -2949,13 +2936,13 @@
         <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2966,12 +2953,12 @@
       <c r="K33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="4">
@@ -2980,34 +2967,34 @@
       <c r="C34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>153</v>
+      <c r="D34" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>161</v>
+      <c r="F34" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="11" t="s">
+      <c r="J34" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="4">
@@ -3016,34 +3003,34 @@
       <c r="C35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>153</v>
+      <c r="D35" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>161</v>
+      <c r="G35" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="11" t="s">
+      <c r="J35" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="6">
         <v>31</v>
       </c>
       <c r="B36" s="4">
@@ -3052,34 +3039,34 @@
       <c r="C36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>153</v>
+      <c r="D36" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>161</v>
+      <c r="F36" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="11" t="s">
+      <c r="J36" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="6">
         <v>32</v>
       </c>
       <c r="B37" s="4">
@@ -3088,34 +3075,34 @@
       <c r="C37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>153</v>
+      <c r="D37" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>161</v>
+      <c r="F37" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="11" t="s">
+      <c r="J37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="6">
         <v>33</v>
       </c>
       <c r="B38" s="4">
@@ -3125,54 +3112,54 @@
         <v>59</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="F38" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="12"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="12">
         <v>1</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="16" t="s">
+      <c r="C39" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="17"/>
+      <c r="G39" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/HW Source Files/SENSORSHLD1-EVK-101 HW Design Files/Schematic_BOM/ROHM_SENSORSHLD1-EVK-101_BOM_REV01_2016-03-16.xlsx
+++ b/HW Source Files/SENSORSHLD1-EVK-101 HW Design Files/Schematic_BOM/ROHM_SENSORSHLD1-EVK-101_BOM_REV01_2016-03-16.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="SENSORKIT-MULTISENSORSHIELD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="176">
   <si>
     <t>Item</t>
   </si>
@@ -489,18 +489,12 @@
     <t>Standard Pitch Through-Hole Female</t>
   </si>
   <si>
-    <t>Last manufacturer should have many of these leftover as I ordered way too many for the last build…  Need to Confirm Before ordering again!</t>
-  </si>
-  <si>
     <t>Header Purchase Info (This is the sum of headers for lines 30-33)</t>
   </si>
   <si>
     <t>32-Pin Header</t>
   </si>
   <si>
-    <t>See Item 35</t>
-  </si>
-  <si>
     <t>CONN HEADER VERT SGL 8POS - Long side on bottom</t>
   </si>
   <si>
@@ -538,12 +532,27 @@
   </si>
   <si>
     <t>KXG03-1034</t>
+  </si>
+  <si>
+    <t>S1012EC-32-ND</t>
+  </si>
+  <si>
+    <t>Break these into line items 29 to 32</t>
+  </si>
+  <si>
+    <t>See Item 34</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>PREC032SAAN-RC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1902,11 +1911,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1927,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1983,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -2255,7 +2265,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2507,7 +2517,7 @@
         <v>86</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>142</v>
@@ -2609,7 +2619,7 @@
         <v>97</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>95</v>
@@ -2643,10 +2653,10 @@
         <v>100</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>47</v>
@@ -2711,7 +2721,7 @@
         <v>108</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>149</v>
@@ -2736,7 +2746,7 @@
         <v>137</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>107</v>
@@ -2745,16 +2755,16 @@
         <v>108</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="7"/>
@@ -2878,7 +2888,7 @@
         <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2910,7 +2920,7 @@
         <v>154</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2942,7 +2952,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2974,19 +2984,19 @@
         <v>54</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K34" s="10"/>
       <c r="L34" s="8" t="s">
@@ -3010,19 +3020,19 @@
         <v>52</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="8" t="s">
@@ -3046,19 +3056,19 @@
         <v>54</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="8" t="s">
@@ -3082,19 +3092,19 @@
         <v>58</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="8" t="s">
@@ -3118,7 +3128,7 @@
         <v>58</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -3141,10 +3151,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>110</v>
@@ -3153,13 +3163,21 @@
         <v>111</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+        <v>174</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="14"/>
+      <c r="L39" s="14" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3168,7 +3186,7 @@
     <hyperlink ref="J29" r:id="rId3" display="http://www.digikey.com/product-detail/en/NVT2003DP,118/568-8383-2-ND/2763882"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup scale="41" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
   <tableParts count="1">
     <tablePart r:id="rId5"/>
   </tableParts>

--- a/HW Source Files/SENSORSHLD1-EVK-101 HW Design Files/Schematic_BOM/ROHM_SENSORSHLD1-EVK-101_BOM_REV01_2016-03-16.xlsx
+++ b/HW Source Files/SENSORSHLD1-EVK-101 HW Design Files/Schematic_BOM/ROHM_SENSORSHLD1-EVK-101_BOM_REV01_2016-03-16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-135" windowWidth="27795" windowHeight="4620"/>
+    <workbookView xWindow="840" yWindow="-135" windowWidth="11055" windowHeight="3405"/>
   </bookViews>
   <sheets>
     <sheet name="SENSORKIT-MULTISENSORSHIELD" sheetId="1" r:id="rId1"/>
@@ -1700,6 +1700,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1735,6 +1752,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1916,7 +1950,9 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
